--- a/QMod.xlsx
+++ b/QMod.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\QuestModInfoLocalization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85610F8-CAC0-4032-9C08-FCCD8FA39D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF42F32-56B6-4F82-9447-77726AB851AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3606F774-6C4C-45A4-BC89-97EC65089B96}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
   <si>
     <t>Mod名称</t>
   </si>
@@ -92,8 +92,309 @@
     <t>PolyglotInject</t>
   </si>
   <si>
-    <r>
-      <t>将更多语言注入到游戏中，让游戏支持显示为中文，</t>
+    <t>SongBrowser</t>
+  </si>
+  <si>
+    <t>歌曲排序、筛选，并显示PP、难度等数据（兼容性差，可能导致游戏闪退无法打开）</t>
+  </si>
+  <si>
+    <t>ScoreSaber</t>
+  </si>
+  <si>
+    <t>BeatLeader</t>
+  </si>
+  <si>
+    <r>
+      <t>数据量较小的跨平台排行榜，开源，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>需要进入Mod设置注册并登录BL账号</t>
+    </r>
+  </si>
+  <si>
+    <t>Qosmetics</t>
+  </si>
+  <si>
+    <t>支持更换光剑、方块、墙壁模型的Mod</t>
+  </si>
+  <si>
+    <t>BeatTogether</t>
+  </si>
+  <si>
+    <t>MultiplayerCore</t>
+  </si>
+  <si>
+    <t>ServerBrowser</t>
+  </si>
+  <si>
+    <t>Replay</t>
+  </si>
+  <si>
+    <t>回放Mod</t>
+  </si>
+  <si>
+    <t>AnyTweaks</t>
+  </si>
+  <si>
+    <t>调整画质、分辨率与刷新率，还可以显示帧率</t>
+  </si>
+  <si>
+    <t>Qounters-</t>
+  </si>
+  <si>
+    <t>计数器Mod，给游戏过程添加更多的信息显示</t>
+  </si>
+  <si>
+    <t>Chroma</t>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>appingExtensions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>oodleExtensions</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于支持通过第三方服务器联机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于支持自定义歌曲联机，支持自动下载歌曲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联机房间列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmoothedController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在菜单中平滑手柄以减少抖动，使UI更易于使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CrashMod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以通过各种触发方式使游戏崩溃，例如可以在开始游戏、出现失误、正确挥砍时崩溃你的游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChatUI</t>
+  </si>
+  <si>
+    <t>可以在游戏里看到Twitch直播的聊天内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThirdPerson(Play3rdPer)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以第三人称视角进行游戏（用于视频录制）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Redbar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据你的血量改变血槽颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StreamerTools</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过覆盖界面增强你的BeatSaber直播（使用教程：https://github.com/EnderdracheLP/streamer-tools/wiki ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SearchFixes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>似乎是用于增强搜索匹配算法的Mod，还可以按谱师名称搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SaberTailor</t>
+  </si>
+  <si>
+    <t>为每只手进行独立的手柄设置（如位置/角度偏移等）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustomPillows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你希望菜单中多一些</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🌶️</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>吗？将您的抱枕添加至菜单中并编辑它们的纹理！</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImageCoverExpander</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在选择歌曲界面中扩大展示歌曲封面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DifficultySaver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让你每次点开新歌都能自动选中设置的难度（无论上一次选的是哪个难度）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FasterScroll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可调滚动速度，让你更快地找到歌曲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuestSounds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义各种音效的Mod（音效存放位置：https://github.com/EnderdracheLP/QuestSounds/#features ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClockMod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JDFixer</t>
+  </si>
+  <si>
+    <t>用于更改方块出生距离、反应时间的Mod（相当于其他音游的调速）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HitScoreVisualizer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义砍中时弹出的分数文本样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThinSabers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>细光剑Mod（不需要Qosmetics，这是一个独立Mod）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transitions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除了游戏启动时的癫痫警告，且可配置地减少切换场景耗时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StopForgettingMySettings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别™忘了我的设置（防止你的覆盖默认环境设置在重启游戏后被重置）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Promotion "Yeeter"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告屏蔽（删除主菜单中的促销曲包，还你一个干净的主菜单）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据量很大的跨平台排行榜，下载地址：https://scoresaber.com/quest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将更多语言注入到游戏中，让游戏支持显示为中文，下载地址：http://share.wgzeyu.vip/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>面条扩展，用于支持特殊的谱面效果（</t>
     </r>
     <r>
       <rPr>
@@ -105,21 +406,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>点我进入下载</t>
-    </r>
-  </si>
-  <si>
-    <t>SongBrowser</t>
-  </si>
-  <si>
-    <t>歌曲排序、筛选，并显示PP、难度等数据（兼容性差，可能导致游戏闪退无法打开）</t>
-  </si>
-  <si>
-    <t>ScoreSaber</t>
-  </si>
-  <si>
-    <r>
-      <t>数据量很大的跨平台排行榜，</t>
+      <t>不要与ME同时安装，推荐与Chroma同时安装）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>炫彩扩展，用于支持特殊的谱面效果（</t>
     </r>
     <r>
       <rPr>
@@ -131,65 +424,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>点我进入下载</t>
-    </r>
-  </si>
-  <si>
-    <t>BeatLeader</t>
-  </si>
-  <si>
-    <r>
-      <t>数据量较小的跨平台排行榜，开源，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>需要进入Mod设置注册并登录BL账号</t>
-    </r>
-  </si>
-  <si>
-    <t>Qosmetics</t>
-  </si>
-  <si>
-    <t>支持更换光剑、方块、墙壁模型的Mod</t>
-  </si>
-  <si>
-    <t>BeatTogether</t>
-  </si>
-  <si>
-    <t>MultiplayerCore</t>
-  </si>
-  <si>
-    <t>ServerBrowser</t>
-  </si>
-  <si>
-    <t>Replay</t>
-  </si>
-  <si>
-    <t>回放Mod</t>
-  </si>
-  <si>
-    <t>AnyTweaks</t>
-  </si>
-  <si>
-    <t>调整画质、分辨率与刷新率，还可以显示帧率</t>
-  </si>
-  <si>
-    <t>Qounters-</t>
-  </si>
-  <si>
-    <t>计数器Mod，给游戏过程添加更多的信息显示</t>
-  </si>
-  <si>
-    <t>Chroma</t>
-  </si>
-  <si>
-    <r>
-      <t>炫彩扩展，用于支持特殊的谱面效果（</t>
+      <t>不要与ME同时安装，推荐与NE同时安装）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>谱面扩展，用于支持特殊的谱面效果（</t>
     </r>
     <r>
       <rPr>
@@ -201,93 +442,8 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>效果演示，不要与ME同时安装，推荐与NE同时安装）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>面条扩展，用于支持特殊的谱面效果（</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>效果演示，不要与ME同时安装，推荐与Chroma同时安装）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>谱面扩展，用于支持特殊的谱面效果（</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>效果演示，不要与NE或Chroma同时安装）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>appingExtensions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>　</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>oodleExtensions</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于支持通过第三方服务器联机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于支持自定义歌曲联机，支持自动下载歌曲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联机房间列表</t>
+      <t>不要与NE或Chroma同时安装）</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -295,7 +451,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,6 +494,12 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Emoji"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -680,16 +842,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11BA37F8-6A14-45E9-A2EA-612AE2CFB34F}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.75" customWidth="1"/>
-    <col min="2" max="2" width="80.125" customWidth="1"/>
+    <col min="1" max="1" width="23.125" customWidth="1"/>
+    <col min="2" max="2" width="91.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -769,111 +931,271 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
         <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>36</v>
       </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
         <v>41</v>
       </c>
-      <c r="B21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" t="s">
-        <v>31</v>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -881,9 +1203,9 @@
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" display="http://share.wgzeyu.vip/?Ly9Nb2QlRTclOUIlQjglRTUlODUlQjMlRTYlOTYlODclRTQlQkIlQjYv" xr:uid="{A9930C32-9FCB-4180-B950-67E3773551B6}"/>
     <hyperlink ref="B12" r:id="rId2" display="https://scoresaber.com/quest" xr:uid="{8DFF8C6B-DC20-4FF4-A2C0-AEFF2896DC4F}"/>
-    <hyperlink ref="B20" r:id="rId3" display="https://www.bilibili.com/video/BV1ar4y1c7Rm" xr:uid="{A9FF4088-9864-4AA7-A2BE-C458F57D3596}"/>
-    <hyperlink ref="B21" r:id="rId4" display="https://www.bilibili.com/video/BV1Pu411S7dW" xr:uid="{B1301B29-6190-4C7D-B827-B40824BF705A}"/>
-    <hyperlink ref="B22" r:id="rId5" display="https://www.bilibili.com/video/BV1o7411r74p" xr:uid="{A338919B-7A4C-4C2D-9725-7D335DCB0623}"/>
+    <hyperlink ref="B21" r:id="rId3" display="https://www.bilibili.com/video/BV1ar4y1c7Rm" xr:uid="{A9FF4088-9864-4AA7-A2BE-C458F57D3596}"/>
+    <hyperlink ref="B22" r:id="rId4" display="https://www.bilibili.com/video/BV1Pu411S7dW" xr:uid="{B1301B29-6190-4C7D-B827-B40824BF705A}"/>
+    <hyperlink ref="B23" r:id="rId5" display="https://www.bilibili.com/video/BV1o7411r74p" xr:uid="{A338919B-7A4C-4C2D-9725-7D335DCB0623}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId6"/>

--- a/QMod.xlsx
+++ b/QMod.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\QuestModInfoLocalization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF42F32-56B6-4F82-9447-77726AB851AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F9AAE7-5441-4C54-8D3B-017496E7CF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3606F774-6C4C-45A4-BC89-97EC65089B96}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="111">
   <si>
     <t>Mod名称</t>
   </si>
@@ -116,12 +116,6 @@
       </rPr>
       <t>需要进入Mod设置注册并登录BL账号</t>
     </r>
-  </si>
-  <si>
-    <t>Qosmetics</t>
-  </si>
-  <si>
-    <t>支持更换光剑、方块、墙壁模型的Mod</t>
   </si>
   <si>
     <t>BeatTogether</t>
@@ -444,6 +438,118 @@
       </rPr>
       <t>不要与NE或Chroma同时安装）</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShortSaber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于修改光剑尺寸（厚度与长度）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmallQubes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩小方块显示尺寸（不兼容Qosmetics）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SliceDetails</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可查看你在每个位置上的平均切割分数等分数详情信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IntroSkip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳过较长的歌曲前奏与后奏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustomMainMenu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改主菜单的按钮文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qosmetics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持更换光剑、方块、墙壁模型的Mod（旧）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QosmeticsWhackers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持更换光剑模型的Mod（新）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持更换方块模型的Mod（新）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持更换墙壁模型的Mod（新）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QosmeticsCyoobs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QosmeticsBoxes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acculight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据你的最新成绩来决定选歌及成绩页面中的灯光颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RainbowQuest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让各种东西彩虹化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RandomSongPicker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机选择一首歌曲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CrashReporter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动上传崩溃日志到https://analyzer.questmodding.com/crashes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FullComboEffects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改全连时的成绩页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -842,10 +948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11BA37F8-6A14-45E9-A2EA-612AE2CFB34F}">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -931,7 +1037,7 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -947,7 +1053,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -960,242 +1066,346 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>87</v>
+      </c>
+      <c r="B49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1203,9 +1413,9 @@
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" display="http://share.wgzeyu.vip/?Ly9Nb2QlRTclOUIlQjglRTUlODUlQjMlRTYlOTYlODclRTQlQkIlQjYv" xr:uid="{A9930C32-9FCB-4180-B950-67E3773551B6}"/>
     <hyperlink ref="B12" r:id="rId2" display="https://scoresaber.com/quest" xr:uid="{8DFF8C6B-DC20-4FF4-A2C0-AEFF2896DC4F}"/>
-    <hyperlink ref="B21" r:id="rId3" display="https://www.bilibili.com/video/BV1ar4y1c7Rm" xr:uid="{A9FF4088-9864-4AA7-A2BE-C458F57D3596}"/>
-    <hyperlink ref="B22" r:id="rId4" display="https://www.bilibili.com/video/BV1Pu411S7dW" xr:uid="{B1301B29-6190-4C7D-B827-B40824BF705A}"/>
-    <hyperlink ref="B23" r:id="rId5" display="https://www.bilibili.com/video/BV1o7411r74p" xr:uid="{A338919B-7A4C-4C2D-9725-7D335DCB0623}"/>
+    <hyperlink ref="B24" r:id="rId3" display="https://www.bilibili.com/video/BV1ar4y1c7Rm" xr:uid="{A9FF4088-9864-4AA7-A2BE-C458F57D3596}"/>
+    <hyperlink ref="B25" r:id="rId4" display="https://www.bilibili.com/video/BV1Pu411S7dW" xr:uid="{B1301B29-6190-4C7D-B827-B40824BF705A}"/>
+    <hyperlink ref="B26" r:id="rId5" display="https://www.bilibili.com/video/BV1o7411r74p" xr:uid="{A338919B-7A4C-4C2D-9725-7D335DCB0623}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId6"/>

--- a/QMod.xlsx
+++ b/QMod.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\QuestModInfoLocalization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F9AAE7-5441-4C54-8D3B-017496E7CF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E7FF32-1C04-4AC5-BBB4-79A83AA4FD62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3606F774-6C4C-45A4-BC89-97EC65089B96}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="151">
   <si>
     <t>Mod名称</t>
   </si>
@@ -550,6 +550,166 @@
   </si>
   <si>
     <t>修改全连时的成绩页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrickSaber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特技光剑，可以旋转或扔出光剑的Mod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DebrisTweaks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全定制调整各种碎片参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AntiVertigo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在玩家下方生成一个立方体或圆柱体，以帮助缓解恐高症</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InvertedArrows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反转方块的箭头方向（将禁用分数提交）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BurnMarksQeeper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使光剑碰到地面的烧痕不会自己消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustomBackgrounds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入360°全景照片作为游戏背景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustomFailText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义游戏失败时的提示文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SongInfoPlus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击封面后显示关于歌曲的更多信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoHealthAndSafety</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除启动游戏时烦人的健康与安全提示窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cheater'sAnxiety</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在每次暂停与恢复时玩俄罗斯轮盘赌，赌输将崩溃游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DiscordPresence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为游戏添加Discord支持，让你的游戏状态可以显示到Discord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishUtils</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QustomBanners</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义横幅（保存在/Pictures/banners/）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MRCPlus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过MRC将自定义相机画面传输到电脑，教程：https://github.com/Raemien/MRCPlus/wiki/Getting-Started</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SongDifficultyChart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示歌曲难度图表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动开关方块碎片、调整暂停后恢复时的等待时间、自定义暂停按钮及暂停确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FingerSaber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手指光剑，用手势追踪玩光剑的Mod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>darthmaul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达斯摩尔，双头光剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QonsistentSaberColors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将菜单中的手柄颜色调整为你在"覆盖默认颜色"中设置的颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuckMaps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让你尝试游玩BPM超出设定范围的歌曲时，崩溃你的游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddedModifiers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加更多修改项到你的游戏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -948,10 +1108,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11BA37F8-6A14-45E9-A2EA-612AE2CFB34F}">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1406,6 +1566,166 @@
       </c>
       <c r="B56" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>127</v>
+      </c>
+      <c r="B65" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>134</v>
+      </c>
+      <c r="B69" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>136</v>
+      </c>
+      <c r="B70" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>138</v>
+      </c>
+      <c r="B71" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>141</v>
+      </c>
+      <c r="B72" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>147</v>
+      </c>
+      <c r="B75" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/QMod.xlsx
+++ b/QMod.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\QuestModInfoLocalization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E7FF32-1C04-4AC5-BBB4-79A83AA4FD62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3F7FE8-29FD-4E6A-9686-33A00DAD046E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3606F774-6C4C-45A4-BC89-97EC65089B96}"/>
   </bookViews>
@@ -133,9 +133,6 @@
     <t>回放Mod</t>
   </si>
   <si>
-    <t>AnyTweaks</t>
-  </si>
-  <si>
     <t>调整画质、分辨率与刷新率，还可以显示帧率</t>
   </si>
   <si>
@@ -710,6 +707,10 @@
   </si>
   <si>
     <t>增加更多修改项到你的游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnyTweaks(AikaTweaks)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1110,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11BA37F8-6A14-45E9-A2EA-612AE2CFB34F}">
   <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1197,7 +1198,7 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1213,7 +1214,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -1226,42 +1227,42 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" t="s">
         <v>93</v>
-      </c>
-      <c r="B14" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" t="s">
         <v>95</v>
-      </c>
-      <c r="B15" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" t="s">
         <v>70</v>
-      </c>
-      <c r="B18" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1269,7 +1270,7 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1277,7 +1278,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1285,47 +1286,47 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>150</v>
+      </c>
+      <c r="B22" t="s">
         <v>28</v>
-      </c>
-      <c r="B22" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
         <v>30</v>
-      </c>
-      <c r="B23" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -1338,394 +1339,394 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
         <v>38</v>
-      </c>
-      <c r="B28" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
         <v>40</v>
-      </c>
-      <c r="B29" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" t="s">
         <v>42</v>
-      </c>
-      <c r="B30" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" t="s">
         <v>44</v>
-      </c>
-      <c r="B31" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" t="s">
         <v>46</v>
-      </c>
-      <c r="B32" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" t="s">
         <v>48</v>
-      </c>
-      <c r="B33" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" t="s">
         <v>50</v>
-      </c>
-      <c r="B34" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" t="s">
         <v>52</v>
-      </c>
-      <c r="B35" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" t="s">
         <v>54</v>
-      </c>
-      <c r="B36" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" t="s">
         <v>56</v>
-      </c>
-      <c r="B37" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" t="s">
         <v>58</v>
-      </c>
-      <c r="B38" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" t="s">
         <v>60</v>
-      </c>
-      <c r="B39" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" t="s">
         <v>62</v>
-      </c>
-      <c r="B40" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" t="s">
         <v>64</v>
-      </c>
-      <c r="B41" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" t="s">
         <v>66</v>
-      </c>
-      <c r="B42" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" t="s">
         <v>68</v>
-      </c>
-      <c r="B43" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" t="s">
         <v>72</v>
-      </c>
-      <c r="B44" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" t="s">
         <v>74</v>
-      </c>
-      <c r="B45" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" t="s">
         <v>76</v>
-      </c>
-      <c r="B46" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" t="s">
         <v>83</v>
-      </c>
-      <c r="B47" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" t="s">
         <v>85</v>
-      </c>
-      <c r="B48" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" t="s">
         <v>87</v>
-      </c>
-      <c r="B49" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" t="s">
         <v>89</v>
-      </c>
-      <c r="B50" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>90</v>
+      </c>
+      <c r="B51" t="s">
         <v>91</v>
-      </c>
-      <c r="B51" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" t="s">
         <v>101</v>
-      </c>
-      <c r="B52" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" t="s">
         <v>103</v>
-      </c>
-      <c r="B53" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" t="s">
         <v>105</v>
-      </c>
-      <c r="B54" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" t="s">
         <v>107</v>
-      </c>
-      <c r="B55" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" t="s">
         <v>109</v>
-      </c>
-      <c r="B56" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" t="s">
         <v>111</v>
-      </c>
-      <c r="B57" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" t="s">
         <v>113</v>
-      </c>
-      <c r="B58" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" t="s">
         <v>115</v>
-      </c>
-      <c r="B59" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" t="s">
         <v>117</v>
-      </c>
-      <c r="B60" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" t="s">
         <v>119</v>
-      </c>
-      <c r="B61" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" t="s">
         <v>121</v>
-      </c>
-      <c r="B62" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" t="s">
         <v>123</v>
-      </c>
-      <c r="B63" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" t="s">
         <v>125</v>
-      </c>
-      <c r="B64" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" t="s">
         <v>127</v>
-      </c>
-      <c r="B65" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" t="s">
         <v>129</v>
-      </c>
-      <c r="B66" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" t="s">
         <v>131</v>
-      </c>
-      <c r="B67" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B68" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>133</v>
+      </c>
+      <c r="B69" t="s">
         <v>134</v>
-      </c>
-      <c r="B69" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>135</v>
+      </c>
+      <c r="B70" t="s">
         <v>136</v>
-      </c>
-      <c r="B70" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>137</v>
+      </c>
+      <c r="B71" t="s">
         <v>138</v>
-      </c>
-      <c r="B71" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>140</v>
+      </c>
+      <c r="B72" t="s">
         <v>141</v>
-      </c>
-      <c r="B72" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>142</v>
+      </c>
+      <c r="B73" t="s">
         <v>143</v>
-      </c>
-      <c r="B73" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>144</v>
+      </c>
+      <c r="B74" t="s">
         <v>145</v>
-      </c>
-      <c r="B74" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>146</v>
+      </c>
+      <c r="B75" t="s">
         <v>147</v>
-      </c>
-      <c r="B75" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>148</v>
+      </c>
+      <c r="B76" t="s">
         <v>149</v>
-      </c>
-      <c r="B76" t="s">
-        <v>150</v>
       </c>
     </row>
   </sheetData>
